--- a/backend/data/newMBTI延伸物.xlsx
+++ b/backend/data/newMBTI延伸物.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Username\Desktop\Course-recommendation-system-main\backend\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="57">
   <si>
     <t>課程名稱</t>
   </si>
@@ -170,17 +175,82 @@
   </si>
   <si>
     <t>INFP</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ink</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ategory</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BTI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_type</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -188,7 +258,36 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -228,22 +327,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -285,7 +398,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -317,9 +430,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,6 +465,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -526,14 +641,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,8 +660,20 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -554,8 +683,20 @@
       <c r="C2">
         <v>0.1727803769667702</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -563,10 +704,22 @@
         <v>38</v>
       </c>
       <c r="C3">
-        <v>0.2127477819190516</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0.21274778191905161</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -574,10 +727,22 @@
         <v>39</v>
       </c>
       <c r="C4">
-        <v>0.2952970170450515</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.29529701704505151</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -587,8 +752,20 @@
       <c r="C5">
         <v>0.4063418293312186</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -598,8 +775,20 @@
       <c r="C6">
         <v>0.4063418293312186</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -607,10 +796,22 @@
         <v>40</v>
       </c>
       <c r="C7">
-        <v>0.2420026471381534</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.24200264713815339</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -618,10 +819,22 @@
         <v>41</v>
       </c>
       <c r="C8">
-        <v>0.4113744475954182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.41137444759541819</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -629,10 +842,22 @@
         <v>41</v>
       </c>
       <c r="C9">
-        <v>0.4022394356964936</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.40223943569649362</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -640,10 +865,22 @@
         <v>42</v>
       </c>
       <c r="C10">
-        <v>0.1495576176081451</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.14955761760814509</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -653,8 +890,20 @@
       <c r="C11">
         <v>0.3847468737998434</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -662,10 +911,22 @@
         <v>44</v>
       </c>
       <c r="C12">
-        <v>0.300056022721546</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.30005602272154602</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -673,10 +934,22 @@
         <v>38</v>
       </c>
       <c r="C13">
-        <v>0.2938532973012377</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.29385329730123771</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -684,10 +957,22 @@
         <v>45</v>
       </c>
       <c r="C14">
-        <v>0.4332112044010379</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.43321120440103789</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -695,10 +980,22 @@
         <v>45</v>
       </c>
       <c r="C15">
-        <v>0.4332112044010379</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.43321120440103789</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -706,10 +1003,22 @@
         <v>46</v>
       </c>
       <c r="C16">
-        <v>0.4732218190060258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.47322181900602578</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -717,10 +1026,22 @@
         <v>46</v>
       </c>
       <c r="C17">
-        <v>0.4236821677049531</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0.42368216770495309</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -728,10 +1049,22 @@
         <v>47</v>
       </c>
       <c r="C18">
-        <v>0.471167773792552</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.47116777379255198</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18">
+        <v>17</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -739,10 +1072,22 @@
         <v>47</v>
       </c>
       <c r="C19">
-        <v>0.471167773792552</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>0.47116777379255198</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19">
+        <v>18</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -750,10 +1095,22 @@
         <v>46</v>
       </c>
       <c r="C20">
-        <v>0.4387561490002055</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.43875614900020549</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20">
+        <v>19</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -761,10 +1118,22 @@
         <v>48</v>
       </c>
       <c r="C21">
-        <v>0.4207622592737698</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.42076225927376981</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -772,10 +1141,22 @@
         <v>49</v>
       </c>
       <c r="C22">
-        <v>0.2905869370847091</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.29058693708470912</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22">
+        <v>21</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -783,10 +1164,22 @@
         <v>43</v>
       </c>
       <c r="C23">
-        <v>0.3652715721581778</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.36527157215817779</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23">
+        <v>22</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -796,8 +1189,20 @@
       <c r="C24">
         <v>0.3509376565806871</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24">
+        <v>23</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -805,10 +1210,22 @@
         <v>40</v>
       </c>
       <c r="C25">
-        <v>0.2116867305427766</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.21168673054277659</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25">
+        <v>24</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -816,10 +1233,22 @@
         <v>45</v>
       </c>
       <c r="C26">
-        <v>0.25711888987508</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.25711888987508003</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26">
+        <v>25</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -827,10 +1256,22 @@
         <v>50</v>
       </c>
       <c r="C27">
-        <v>0.3730984191298244</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>0.37309841912982439</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27">
+        <v>26</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -838,10 +1279,22 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>0.5118517504630885</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.51185175046308851</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28">
+        <v>27</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -849,10 +1302,22 @@
         <v>46</v>
       </c>
       <c r="C29">
-        <v>0.5118517504630885</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.51185175046308851</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29">
+        <v>28</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -860,10 +1325,22 @@
         <v>45</v>
       </c>
       <c r="C30">
-        <v>0.4009497627786937</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.40094976277869371</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30">
+        <v>29</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -871,10 +1348,22 @@
         <v>47</v>
       </c>
       <c r="C31">
-        <v>0.1993623578667711</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.19936235786677109</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -882,10 +1371,22 @@
         <v>40</v>
       </c>
       <c r="C32">
-        <v>0.3995217579946237</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.39952175799462369</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32">
+        <v>31</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -893,10 +1394,22 @@
         <v>39</v>
       </c>
       <c r="C33">
-        <v>0.3752073738160374</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.37520737381603742</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33">
+        <v>32</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -904,10 +1417,22 @@
         <v>50</v>
       </c>
       <c r="C34">
-        <v>0.3198287078713962</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.31982870787139622</v>
+      </c>
+      <c r="D34">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34">
+        <v>33</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -915,10 +1440,22 @@
         <v>51</v>
       </c>
       <c r="C35">
-        <v>0.307232060415788</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.30723206041578799</v>
+      </c>
+      <c r="D35">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35">
+        <v>34</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -926,10 +1463,22 @@
         <v>50</v>
       </c>
       <c r="C36">
-        <v>0.2164748008183263</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.21647480081832629</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36">
+        <v>35</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -937,10 +1486,22 @@
         <v>43</v>
       </c>
       <c r="C37">
-        <v>0.4162890216356365</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>0.41628902163563652</v>
+      </c>
+      <c r="D37">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37">
+        <v>36</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -948,10 +1509,22 @@
         <v>43</v>
       </c>
       <c r="C38">
-        <v>0.3991814145371446</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.39918141453714462</v>
+      </c>
+      <c r="D38">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38">
+        <v>37</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -959,10 +1532,22 @@
         <v>48</v>
       </c>
       <c r="C39">
-        <v>0.4228321853278715</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.42283218532787148</v>
+      </c>
+      <c r="D39">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39">
+        <v>38</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -970,10 +1555,22 @@
         <v>48</v>
       </c>
       <c r="C40">
-        <v>0.4228321853278713</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.42283218532787131</v>
+      </c>
+      <c r="D40">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40">
+        <v>39</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -981,10 +1578,22 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0.4181566381979197</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.41815663819791971</v>
+      </c>
+      <c r="D41">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41">
+        <v>40</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -992,10 +1601,22 @@
         <v>51</v>
       </c>
       <c r="C42">
-        <v>0.3953945701237976</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>0.39539457012379758</v>
+      </c>
+      <c r="D42">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42">
+        <v>41</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -1003,10 +1624,22 @@
         <v>51</v>
       </c>
       <c r="C43">
-        <v>0.3953945701237976</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.39539457012379758</v>
+      </c>
+      <c r="D43">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43">
+        <v>42</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -1014,10 +1647,22 @@
         <v>49</v>
       </c>
       <c r="C44">
-        <v>0.3339216409966856</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.33392164099668559</v>
+      </c>
+      <c r="D44">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44">
+        <v>43</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -1025,10 +1670,22 @@
         <v>41</v>
       </c>
       <c r="C45">
-        <v>0.3402045043590513</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>0.34020450435905131</v>
+      </c>
+      <c r="D45">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45">
+        <v>44</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>36</v>
       </c>
@@ -1036,10 +1693,22 @@
         <v>40</v>
       </c>
       <c r="C46">
-        <v>0.4933778354109716</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.49337783541097158</v>
+      </c>
+      <c r="D46">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46">
+        <v>45</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>36</v>
       </c>
@@ -1047,10 +1716,23 @@
         <v>44</v>
       </c>
       <c r="C47">
-        <v>0.3483057740595101</v>
+        <v>0.34830577405951008</v>
+      </c>
+      <c r="D47">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47">
+        <v>46</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>